--- a/backend/node/data/data.xlsx
+++ b/backend/node/data/data.xlsx
@@ -1,41 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus Wira\Desktop\DECEMBER - JANUARY\backend\node\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7868C86-6AD7-4867-85D9-7C303C625D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Jumlah Bayar Kas</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Foto Orangnya</t>
+  </si>
+  <si>
+    <t>BOYKE VILANO HAMONANGAN SIHITE</t>
+  </si>
+  <si>
+    <t>X RPL</t>
+  </si>
+  <si>
+    <t>Siswa</t>
+  </si>
+  <si>
+    <t>https://dummyimage.com/400x/000/fff.jpg</t>
+  </si>
+  <si>
+    <t>CAROLINA TIMUTHY JANGGUR</t>
+  </si>
+  <si>
+    <t>GALISTAN RAMADHAN KURNIA TAUNAES</t>
+  </si>
+  <si>
+    <t>GEDE AGUS WIRA DARMA PUTRA</t>
+  </si>
+  <si>
+    <t>DEWA GEDE DALEM OKA ADNYANA SANDI</t>
+  </si>
+  <si>
+    <t>I GEDE ABI WIRYA DINATA</t>
+  </si>
+  <si>
+    <t>I GEDE DARMA SUPTIAWAN</t>
+  </si>
+  <si>
+    <t>I KOMANG RADITYA PUTRA</t>
+  </si>
+  <si>
+    <t>I KOMANG RISKI SETIAWAN</t>
+  </si>
+  <si>
+    <t>I NYOMAN GEDE ARTA WIGUNA</t>
+  </si>
+  <si>
+    <t>I PUTU DIKA LAKSMANA PUTRA</t>
+  </si>
+  <si>
+    <t>I PUTU DITYA ARTHA WIJAYA</t>
+  </si>
+  <si>
+    <t>I PUTU PANDE ANDIKA</t>
+  </si>
+  <si>
+    <t>I PUTU SUYOGA MAHENDRA</t>
+  </si>
+  <si>
+    <t>I WAYAN BAGUS PUTRAWAN</t>
+  </si>
+  <si>
+    <t>I WAYAN PASEK KEVIN ARIADI</t>
+  </si>
+  <si>
+    <t>KADEK YUDA PRASETYA</t>
+  </si>
+  <si>
+    <t>KADEK YUNI CALLISTA PUTRI DEWI</t>
+  </si>
+  <si>
+    <t>KADEK YUNITA MAHARANI</t>
+  </si>
+  <si>
+    <t>KOMANG DIAH PUTRI PRATIWI</t>
+  </si>
+  <si>
+    <t>LUH RIA MIRASIH</t>
+  </si>
+  <si>
+    <t>NI KADEK ADELIA CAHYA KENCANA PUTRI</t>
+  </si>
+  <si>
+    <t>NI KADEK LINA ANTIKA DEWI</t>
+  </si>
+  <si>
+    <t>NI KOMANG KIRANA PARAMITA ARDANARI</t>
+  </si>
+  <si>
+    <t>NI KOMANG SEPTIARINI</t>
+  </si>
+  <si>
+    <t>NI LUH PUTU KESYA ASTRI MELANI</t>
+  </si>
+  <si>
+    <t>NI PUTU CAHAYA LESTARI DEWI</t>
+  </si>
+  <si>
+    <t>NI PUTU INTAN LESTARI DARMAYANTI</t>
+  </si>
+  <si>
+    <t>OKTA PRADIPTA ATTALA DZAKI</t>
+  </si>
+  <si>
+    <t>PUTU BAYU SATRIA WANGSA BUKIAN</t>
+  </si>
+  <si>
+    <t>PUTU NANDA LINDIA MAHARANI</t>
+  </si>
+  <si>
+    <t>PUTU PUTRI CAHYANI</t>
+  </si>
+  <si>
+    <t>RADITYA RONDI</t>
+  </si>
+  <si>
+    <t>YUSUF ADRIANO MNA'O</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +185,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,723 +524,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="B1" t="str">
-        <v>No</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Kelas</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Jumlah Bayar Kas</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Jabatan</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Foto Orangnya</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>BOYKE VILANO HAMONANGAN SIHITE</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>X RPL</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F2" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>CAROLINA TIMUTHY JANGGUR</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>X RPL</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F3" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>GALISTAN RAMADHAN KURNIA TAUNAES</v>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
-        <v>X RPL</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F4" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>GEDE AGUS WIRA DARMA PUTRA</v>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <v>X RPL</v>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F5" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>DEWA GEDE DALEM OKA ADNYANA SANDI</v>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
-        <v>X RPL</v>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F6" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>I GEDE ABI WIRYA DINATA</v>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="str">
-        <v>X RPL</v>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F7" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>I GEDE DARMA SUPTIAWAN</v>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
-        <v>X RPL</v>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F8" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>I KOMANG RADITYA PUTRA</v>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="str">
-        <v>X RPL</v>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F9" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>I KOMANG RISKI SETIAWAN</v>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="str">
-        <v>X RPL</v>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F10" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>I NYOMAN GEDE ARTA WIGUNA</v>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="str">
-        <v>X RPL</v>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F11" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>I PUTU DIKA LAKSMANA PUTRA</v>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="str">
-        <v>X RPL</v>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F12" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>I PUTU DITYA ARTHA WIJAYA</v>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="str">
-        <v>X RPL</v>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F13" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>I PUTU PANDE ANDIKA</v>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="str">
-        <v>X RPL</v>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F14" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>I PUTU SUYOGA MAHENDRA</v>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="str">
-        <v>X RPL</v>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F15" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>I WAYAN BAGUS PUTRAWAN</v>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="str">
-        <v>X RPL</v>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F16" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>I WAYAN PASEK KEVIN ARIADI</v>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="str">
-        <v>X RPL</v>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F17" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>KADEK YUDA PRASETYA</v>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="str">
-        <v>X RPL</v>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F18" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>KADEK YUNI CALLISTA PUTRI DEWI</v>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="str">
-        <v>X RPL</v>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F19" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>KADEK YUNITA MAHARANI</v>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="str">
-        <v>X RPL</v>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F20" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>KOMANG DIAH PUTRI PRATIWI</v>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="str">
-        <v>X RPL</v>
+      <c r="C21" t="s">
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F21" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>LUH RIA MIRASIH</v>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="str">
-        <v>X RPL</v>
+      <c r="C22" t="s">
+        <v>7</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F22" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>NI KADEK ADELIA CAHYA KENCANA PUTRI</v>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="str">
-        <v>X RPL</v>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F23" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>NI KADEK LINA ANTIKA DEWI</v>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="str">
-        <v>X RPL</v>
+      <c r="C24" t="s">
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F24" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>NI KOMANG KIRANA PARAMITA ARDANARI</v>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="str">
-        <v>X RPL</v>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F25" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>NI KOMANG SEPTIARINI</v>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="str">
-        <v>X RPL</v>
+      <c r="C26" t="s">
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F26" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>NI LUH PUTU KESYA ASTRI MELANI</v>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="str">
-        <v>X RPL</v>
+      <c r="C27" t="s">
+        <v>7</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F27" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>NI PUTU CAHAYA LESTARI DEWI</v>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="str">
-        <v>X RPL</v>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F28" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>NI PUTU INTAN LESTARI DARMAYANTI</v>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="str">
-        <v>X RPL</v>
+      <c r="C29" t="s">
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F29" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>OKTA PRADIPTA ATTALA DZAKI</v>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="str">
-        <v>X RPL</v>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F30" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>PUTU BAYU SATRIA WANGSA BUKIAN</v>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="str">
-        <v>X RPL</v>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F31" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>PUTU NANDA LINDIA MAHARANI</v>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="str">
-        <v>X RPL</v>
+      <c r="C32" t="s">
+        <v>7</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F32" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>PUTU PUTRI CAHYANI</v>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="str">
-        <v>X RPL</v>
+      <c r="C33" t="s">
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F33" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>RADITYA RONDI</v>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" t="str">
-        <v>X RPL</v>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F34" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>YUSUF ADRIANO MNA'O</v>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" t="str">
-        <v>X RPL</v>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="str">
-        <v>Siswa</v>
-      </c>
-      <c r="F35" t="str">
-        <v>https://dummyimage.com/400x/000/fff.jpg</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>ANJAY</v>
-      </c>
-      <c r="D36">
-        <v>101002</v>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F36"/>
+    <ignoredError sqref="A1:F1 A3:C35 A2:C2 E2:F2 E3:F35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>